--- a/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5677</v>
+        <v>5573</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007414417330922346</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02497500872139226</v>
+        <v>0.02451735266419934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4207</v>
+        <v>3731</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007296207922901053</v>
+        <v>0.007296207922901054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002270552526765786</v>
+        <v>0.002254285114455244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02003264442586719</v>
+        <v>0.01776571485460458</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,16 +786,16 @@
         <v>963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7010</v>
+        <v>7079</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00735764696871171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00220117241605085</v>
+        <v>0.002201411073383529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01602817522369231</v>
+        <v>0.01618728317958798</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2421</v>
+        <v>3410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002241071715982573</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01152543270144905</v>
+        <v>0.01623658247471171</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2705</v>
+        <v>2421</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001076280265555738</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006185847102345923</v>
+        <v>0.00553588390804819</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5297</v>
+        <v>5627</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006809234393751249</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02330499837518874</v>
+        <v>0.0247568285128173</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -896,19 +896,19 @@
         <v>2698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5998</v>
+        <v>5990</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01284626564105702</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004670628025559081</v>
+        <v>0.004734840242923213</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02855910926626183</v>
+        <v>0.02852066945565663</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -917,19 +917,19 @@
         <v>4246</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1735</v>
+        <v>1821</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8227</v>
+        <v>8836</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.009708533665470347</v>
+        <v>0.009708533665470346</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003967661882264452</v>
+        <v>0.004164439892325887</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01881116732909027</v>
+        <v>0.0202041921333668</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>218054</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>210273</v>
+        <v>210820</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222665</v>
+        <v>222474</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9593184664421365</v>
+        <v>0.9593184664421364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9250845755201164</v>
+        <v>0.9274921535101196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9796054175608842</v>
+        <v>0.9787625675092915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>316</v>
@@ -967,19 +967,19 @@
         <v>199975</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194672</v>
+        <v>194664</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203484</v>
+        <v>203681</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9521328299339573</v>
+        <v>0.9521328299339576</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9268882492021989</v>
+        <v>0.9268478617153985</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9688440965443746</v>
+        <v>0.9697798539586674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>524</v>
@@ -988,19 +988,19 @@
         <v>418029</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>410229</v>
+        <v>410100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>424987</v>
+        <v>424380</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9558675466370916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9380318024790312</v>
+        <v>0.9377385500832116</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9717792812055633</v>
+        <v>0.9703913868041537</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>6014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2209</v>
+        <v>2583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13131</v>
+        <v>13085</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02645788183318999</v>
+        <v>0.02645788183318998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009717614660866573</v>
+        <v>0.01136500941254868</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05776867494251711</v>
+        <v>0.05756814954429485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1038,19 +1038,19 @@
         <v>5352</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2894</v>
+        <v>2767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9319</v>
+        <v>9239</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02548362478610198</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01378053568554493</v>
+        <v>0.01317312062605232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04437223365239088</v>
+        <v>0.04398723600003811</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1059,19 +1059,19 @@
         <v>11366</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6450</v>
+        <v>6725</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17964</v>
+        <v>18301</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02598999246317057</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01474826781116177</v>
+        <v>0.01537685732936284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04107684390527686</v>
+        <v>0.04184826298910691</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>105276</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81730</v>
+        <v>84965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126741</v>
+        <v>131006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3088480535877157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2397695059665032</v>
+        <v>0.2492619153058918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3718202619952236</v>
+        <v>0.384331752844792</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -1184,19 +1184,19 @@
         <v>108127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92758</v>
+        <v>88261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126128</v>
+        <v>124060</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.314365336739045</v>
+        <v>0.3143653367390451</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2696834238007398</v>
+        <v>0.2566074389184119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.366700402451841</v>
+        <v>0.3606897761077021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -1205,19 +1205,19 @@
         <v>213403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185046</v>
+        <v>184530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242709</v>
+        <v>239620</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3116191257653972</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2702108506919003</v>
+        <v>0.2694576945714046</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3544133294633642</v>
+        <v>0.3499022496150082</v>
       </c>
     </row>
     <row r="11">
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6837</v>
+        <v>6374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.006022869596285919</v>
+        <v>0.00602286959628592</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02005762790235037</v>
+        <v>0.01870066935148642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1255,19 +1255,19 @@
         <v>6372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3142</v>
+        <v>3156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11308</v>
+        <v>11042</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01852722219591202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009135520466021745</v>
+        <v>0.009174974867086081</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03287638928961115</v>
+        <v>0.03210363023809989</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1276,19 +1276,19 @@
         <v>8425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4210</v>
+        <v>4377</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14082</v>
+        <v>14812</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01230321857210295</v>
+        <v>0.01230321857210294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006147182755567101</v>
+        <v>0.006392054900920625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02056370846436686</v>
+        <v>0.02162945960679067</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>9218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3830</v>
+        <v>4034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18329</v>
+        <v>18181</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02704398112048696</v>
+        <v>0.02704398112048697</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01123709084868624</v>
+        <v>0.0118342025468121</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05377249562793289</v>
+        <v>0.05333835252844264</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1326,19 +1326,19 @@
         <v>15729</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10028</v>
+        <v>10305</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22873</v>
+        <v>23226</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04573002591294745</v>
+        <v>0.04573002591294746</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02915513990949254</v>
+        <v>0.02995991218033507</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06650028938543867</v>
+        <v>0.06752528600114191</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1347,19 +1347,19 @@
         <v>24947</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16502</v>
+        <v>17107</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35036</v>
+        <v>36488</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0364291037279468</v>
+        <v>0.03642910372794681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02409688539665351</v>
+        <v>0.02498001045693011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05116155588825379</v>
+        <v>0.05328044158728813</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>194591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170466</v>
+        <v>168962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219653</v>
+        <v>217590</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5708721483614235</v>
+        <v>0.5708721483614236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5000950508368581</v>
+        <v>0.4956841261422893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6443940171088519</v>
+        <v>0.6383428591062558</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>248</v>
@@ -1397,19 +1397,19 @@
         <v>197193</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179743</v>
+        <v>181911</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>214350</v>
+        <v>217499</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5733146256644455</v>
+        <v>0.5733146256644456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5225802635254287</v>
+        <v>0.5288845508502691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6231945149505358</v>
+        <v>0.6323496345187106</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>377</v>
@@ -1418,19 +1418,19 @@
         <v>391785</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>360175</v>
+        <v>363353</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>418935</v>
+        <v>422505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5720988899864917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5259406921371562</v>
+        <v>0.5305819670067937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6117445579322403</v>
+        <v>0.6169580433355936</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>29728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18518</v>
+        <v>18508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45499</v>
+        <v>47736</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08721294733408781</v>
+        <v>0.08721294733408783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0543272982009614</v>
+        <v>0.05429829757374574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1334802365267803</v>
+        <v>0.1400419181923821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1468,19 +1468,19 @@
         <v>16531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10370</v>
+        <v>10918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24595</v>
+        <v>24512</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.04806278948765006</v>
+        <v>0.04806278948765007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03015078545203191</v>
+        <v>0.03174169501620672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07150607526314298</v>
+        <v>0.07126414044994267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -1489,19 +1489,19 @@
         <v>46259</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32946</v>
+        <v>33411</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62684</v>
+        <v>64194</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06754966194806132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04810852584938989</v>
+        <v>0.04878833463148392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09153333915554784</v>
+        <v>0.09373798935150308</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>9477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5209</v>
+        <v>4951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16941</v>
+        <v>16121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04123865289674693</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02266943005709372</v>
+        <v>0.0215471581843843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0737210661295512</v>
+        <v>0.07015480456619662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1614,19 +1614,19 @@
         <v>17481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11164</v>
+        <v>11773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25063</v>
+        <v>26666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07271770463257519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0464413040794776</v>
+        <v>0.04897431230664689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1042587113465235</v>
+        <v>0.110923425216304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1635,19 +1635,19 @@
         <v>26958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19170</v>
+        <v>19575</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35509</v>
+        <v>37030</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05733298044187902</v>
+        <v>0.05733298044187903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04077106147453791</v>
+        <v>0.04163223022903604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07551946011446087</v>
+        <v>0.07875564094015164</v>
       </c>
     </row>
     <row r="17">
@@ -1667,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7347</v>
+        <v>7188</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.009050329353357398</v>
+        <v>0.009050329353357396</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03197075849800645</v>
+        <v>0.03128002069529796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9594</v>
+        <v>10094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009950501563319334</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03990881950780818</v>
+        <v>0.04198698979331707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1706,19 +1706,19 @@
         <v>4472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>972</v>
+        <v>883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11607</v>
+        <v>11362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009510561336065553</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002066447079773339</v>
+        <v>0.001877555182016812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0246861493951749</v>
+        <v>0.02416423785893853</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>5329</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2003</v>
+        <v>2055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10898</v>
+        <v>11932</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02319102119684741</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008716371615466257</v>
+        <v>0.008941349394888991</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04742556835676343</v>
+        <v>0.05192339693177653</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1756,19 +1756,19 @@
         <v>3754</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7520</v>
+        <v>7810</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0156170417166876</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005367589694896448</v>
+        <v>0.005402502611038706</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03128070432857796</v>
+        <v>0.03248633036675162</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1777,19 +1777,19 @@
         <v>9083</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4828</v>
+        <v>4929</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15543</v>
+        <v>15379</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01931866482484585</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01026899498404436</v>
+        <v>0.01048258783638263</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03305727492623914</v>
+        <v>0.03270759870331544</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>179594</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>167495</v>
+        <v>166995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>190441</v>
+        <v>191281</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7815326970215478</v>
+        <v>0.7815326970215477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7288823142812794</v>
+        <v>0.7267072337581189</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8287375542896193</v>
+        <v>0.8323920102045982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>226</v>
@@ -1827,19 +1827,19 @@
         <v>165355</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>151909</v>
+        <v>151941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176200</v>
+        <v>177132</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6878422650608301</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6319129301238708</v>
+        <v>0.6320459754283732</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7329559390202436</v>
+        <v>0.7368354735053312</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>397</v>
@@ -1848,19 +1848,19 @@
         <v>344948</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>326526</v>
+        <v>329100</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>361457</v>
+        <v>362878</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7336314923577336</v>
+        <v>0.7336314923577337</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6944530420218484</v>
+        <v>0.6999275832029281</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7687423553173027</v>
+        <v>0.7717663251434336</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>33318</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24408</v>
+        <v>23707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44921</v>
+        <v>43330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1449872995315006</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1062139067370398</v>
+        <v>0.1031660334591568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1954812044001429</v>
+        <v>0.188559561243533</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -1898,19 +1898,19 @@
         <v>51414</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41404</v>
+        <v>40833</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63018</v>
+        <v>61944</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2138724870265876</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1722326730479451</v>
+        <v>0.1698557192105637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2621432886561977</v>
+        <v>0.2576744529758036</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -1919,19 +1919,19 @@
         <v>84732</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71937</v>
+        <v>69553</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>103742</v>
+        <v>99352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1802063010394759</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1529949247805488</v>
+        <v>0.1479252888649184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2206381514594428</v>
+        <v>0.2113010838344248</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>31396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19575</v>
+        <v>19911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46250</v>
+        <v>48024</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1238061144092156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07719229333642484</v>
+        <v>0.07851638243505625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1823803270666674</v>
+        <v>0.1893756964051606</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2044,19 +2044,19 @@
         <v>30371</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22793</v>
+        <v>23355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40856</v>
+        <v>39599</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1142045049754666</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08571002736525589</v>
+        <v>0.0878205114532236</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1536296819268573</v>
+        <v>0.148905308825803</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -2065,19 +2065,19 @@
         <v>61767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47044</v>
+        <v>47173</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77736</v>
+        <v>77986</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1188912488886659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09055087044268086</v>
+        <v>0.09080027049462805</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1496287201287089</v>
+        <v>0.1501104632524422</v>
       </c>
     </row>
     <row r="23">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2928</v>
+        <v>2673</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002145939824390626</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01101012676963952</v>
+        <v>0.01005077975005079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3471</v>
+        <v>2940</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00109846226560726</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.006681739605330713</v>
+        <v>0.005658888221138907</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>19774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10894</v>
+        <v>11497</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32463</v>
+        <v>32010</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07797593053415129</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04296022244169276</v>
+        <v>0.04533575810788314</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1280114549317768</v>
+        <v>0.1262281805455069</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -2178,19 +2178,19 @@
         <v>8980</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4371</v>
+        <v>4366</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16980</v>
+        <v>16027</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03376618817326582</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01643795519063622</v>
+        <v>0.0164181609939523</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06385049973365634</v>
+        <v>0.06026678438669637</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -2199,19 +2199,19 @@
         <v>28754</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19361</v>
+        <v>18094</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>43975</v>
+        <v>41845</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05534587669774342</v>
+        <v>0.05534587669774341</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0372670511327379</v>
+        <v>0.03482809466090023</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08464498089448341</v>
+        <v>0.0805440678594995</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>191186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>171563</v>
+        <v>171359</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>207659</v>
+        <v>207727</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.753916016924413</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6765330982742311</v>
+        <v>0.6757303075038175</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8188725793759657</v>
+        <v>0.8191408036372912</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>234</v>
@@ -2249,19 +2249,19 @@
         <v>213751</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199574</v>
+        <v>200350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>224723</v>
+        <v>224250</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8037727906494174</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7504620879676717</v>
+        <v>0.753379943931579</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8450312624468905</v>
+        <v>0.8432520316408509</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>334</v>
@@ -2270,19 +2270,19 @@
         <v>404938</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382823</v>
+        <v>381698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>424363</v>
+        <v>425809</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.779436669460599</v>
+        <v>0.7794366694605989</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.736869242920043</v>
+        <v>0.7347043900319276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8168278172409932</v>
+        <v>0.8196102618466463</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>11235</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5620</v>
+        <v>5220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21674</v>
+        <v>21727</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04430193813221988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02216264189666394</v>
+        <v>0.02058553888526757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08546641072449998</v>
+        <v>0.08567779338311368</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2320,19 +2320,19 @@
         <v>12262</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6818</v>
+        <v>6678</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21792</v>
+        <v>20805</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04611057637745961</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02563930262724421</v>
+        <v>0.02511031260081929</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08194382429394802</v>
+        <v>0.07823440654314583</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2341,19 +2341,19 @@
         <v>23497</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14995</v>
+        <v>14860</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35996</v>
+        <v>36462</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04522774268738448</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02886378310172239</v>
+        <v>0.0286030063023049</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06928686427278839</v>
+        <v>0.07018395192994296</v>
       </c>
     </row>
     <row r="27">
@@ -2448,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3212</v>
+        <v>3556</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.004781501343737455</v>
+        <v>0.004781501343737456</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02222084653364834</v>
+        <v>0.02459913654826601</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2466,19 +2466,19 @@
         <v>2169</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>465</v>
+        <v>828</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4624</v>
+        <v>4712</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01545924399863591</v>
+        <v>0.01545924399863592</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003311854142922118</v>
+        <v>0.005903412155118457</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03295852887661802</v>
+        <v>0.03359036384762101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2487,19 +2487,19 @@
         <v>2860</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1171</v>
+        <v>1232</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6202</v>
+        <v>6349</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0100405316372308</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004112672049637722</v>
+        <v>0.004326193042356603</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02177272117883246</v>
+        <v>0.02229158606451122</v>
       </c>
     </row>
     <row r="29">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1724</v>
+        <v>1820</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00238730147057882</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01228999709755912</v>
+        <v>0.01297580302304475</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1857</v>
+        <v>1750</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00117580008801913</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006520876841926992</v>
+        <v>0.006145638671252296</v>
       </c>
     </row>
     <row r="30">
@@ -2579,19 +2579,19 @@
         <v>6551</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3344</v>
+        <v>3152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12322</v>
+        <v>11897</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0453211440611887</v>
+        <v>0.04532114406118871</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02313451392276934</v>
+        <v>0.02180339171705685</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08524908664241977</v>
+        <v>0.08230857242093108</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2600,19 +2600,19 @@
         <v>2898</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1351</v>
+        <v>1031</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6203</v>
+        <v>5512</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02066058857981763</v>
+        <v>0.02066058857981764</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009631784583760735</v>
+        <v>0.007351966557978411</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04421723861799724</v>
+        <v>0.0392894905104894</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>16</v>
@@ -2621,19 +2621,19 @@
         <v>9449</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5520</v>
+        <v>5489</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15206</v>
+        <v>15429</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03317526149757329</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01938046591870976</v>
+        <v>0.01926943257957939</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05338396689400587</v>
+        <v>0.05416897769037003</v>
       </c>
     </row>
     <row r="31">
@@ -2650,19 +2650,19 @@
         <v>109846</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>99669</v>
+        <v>99603</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>118567</v>
+        <v>118893</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.7599361369834773</v>
+        <v>0.7599361369834774</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6895270405427557</v>
+        <v>0.6890680724534094</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8202659636349028</v>
+        <v>0.8225206676186423</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>188</v>
@@ -2671,19 +2671,19 @@
         <v>93178</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84039</v>
+        <v>83100</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>101699</v>
+        <v>101869</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.6641979051671388</v>
+        <v>0.6641979051671389</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.599053069959822</v>
+        <v>0.5923558276152352</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7249339923439005</v>
+        <v>0.7261483349740987</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>322</v>
@@ -2692,19 +2692,19 @@
         <v>203025</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>188899</v>
+        <v>188756</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>215505</v>
+        <v>214993</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7127828876834829</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6631894679625886</v>
+        <v>0.6626885107195614</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7565977459484915</v>
+        <v>0.7548024311857151</v>
       </c>
     </row>
     <row r="32">
@@ -2721,19 +2721,19 @@
         <v>27458</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19544</v>
+        <v>19432</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37020</v>
+        <v>37343</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1899612176115965</v>
+        <v>0.1899612176115966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1352070279564062</v>
+        <v>0.1344349227076568</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2561075098779195</v>
+        <v>0.2583427668900596</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>69</v>
@@ -2742,19 +2742,19 @@
         <v>41707</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>33084</v>
+        <v>33118</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50399</v>
+        <v>51248</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2972949607838287</v>
+        <v>0.2972949607838288</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2358298467459127</v>
+        <v>0.2360764016161032</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.359257244916713</v>
+        <v>0.3653108827283665</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>102</v>
@@ -2763,19 +2763,19 @@
         <v>69165</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>57576</v>
+        <v>57611</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>83705</v>
+        <v>83286</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.242825519093694</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2021397577901698</v>
+        <v>0.2022629772848714</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2938744389381254</v>
+        <v>0.2924006932393132</v>
       </c>
     </row>
     <row r="33">
@@ -2867,19 +2867,19 @@
         <v>4232</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1353</v>
+        <v>1446</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10078</v>
+        <v>9933</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02138322699482341</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006835047505566892</v>
+        <v>0.007304931716049651</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05092203981250035</v>
+        <v>0.05019105638055502</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -2888,19 +2888,19 @@
         <v>6498</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3392</v>
+        <v>3131</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11814</v>
+        <v>11201</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03964293036145645</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02069535181788213</v>
+        <v>0.01910055209355199</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07207152626650735</v>
+        <v>0.06833083609378919</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -2909,19 +2909,19 @@
         <v>10730</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6335</v>
+        <v>5910</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17816</v>
+        <v>17519</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02965557007497811</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01750794266680225</v>
+        <v>0.01633381203740669</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04923999822854309</v>
+        <v>0.04841945813278081</v>
       </c>
     </row>
     <row r="35">
@@ -2985,19 +2985,19 @@
         <v>4753</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9441</v>
+        <v>10328</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.024014171853544</v>
+        <v>0.02401417185354401</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008066187632436021</v>
+        <v>0.008086860351799842</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04770354996546659</v>
+        <v>0.05218419295250627</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -3006,19 +3006,19 @@
         <v>2023</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4997</v>
+        <v>5065</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01234263074465977</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003246130348015448</v>
+        <v>0.00330295223172732</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0304819335359577</v>
+        <v>0.03089892883252383</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -3027,19 +3027,19 @@
         <v>6776</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3378</v>
+        <v>3265</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>12484</v>
+        <v>12066</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01872651792027953</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009336074445116076</v>
+        <v>0.009022343592331278</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03450148059648025</v>
+        <v>0.03334738243347411</v>
       </c>
     </row>
     <row r="37">
@@ -3056,19 +3056,19 @@
         <v>185686</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>178599</v>
+        <v>177974</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>190670</v>
+        <v>191013</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9382593582506633</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9024458653485562</v>
+        <v>0.8992912980100576</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9634414711635062</v>
+        <v>0.965176976786709</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>219</v>
@@ -3077,19 +3077,19 @@
         <v>153370</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>147153</v>
+        <v>147535</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>157667</v>
+        <v>157553</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9356337103570868</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8977094985116777</v>
+        <v>0.9000379758887865</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9618504307950738</v>
+        <v>0.961154488123206</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>431</v>
@@ -3098,19 +3098,19 @@
         <v>339056</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>329446</v>
+        <v>330357</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>345949</v>
+        <v>346687</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9370698394645562</v>
+        <v>0.9370698394645561</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9105104933222484</v>
+        <v>0.9130274794828281</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9561202125033839</v>
+        <v>0.9581600294108762</v>
       </c>
     </row>
     <row r="38">
@@ -3127,19 +3127,19 @@
         <v>3234</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8181</v>
+        <v>8397</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01634324290096937</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003999420080716306</v>
+        <v>0.004009469088470808</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04134019869543885</v>
+        <v>0.04243020670279415</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -3148,19 +3148,19 @@
         <v>2029</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6241</v>
+        <v>5803</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01238072853679711</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003666659820396928</v>
+        <v>0.00367829731708415</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03807101526047949</v>
+        <v>0.0353982647806771</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7</v>
@@ -3169,19 +3169,19 @@
         <v>5264</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2368</v>
+        <v>2120</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11305</v>
+        <v>10478</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01454807254018611</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.006544648697276769</v>
+        <v>0.005858428151829195</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03124404227969668</v>
+        <v>0.02895867596312632</v>
       </c>
     </row>
     <row r="39">
@@ -3273,19 +3273,19 @@
         <v>68290</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>51304</v>
+        <v>50197</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>86350</v>
+        <v>87534</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1457700858938254</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1095127834694359</v>
+        <v>0.1071498547701788</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1843219841527184</v>
+        <v>0.1868484109384661</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>86</v>
@@ -3294,19 +3294,19 @@
         <v>68219</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>55571</v>
+        <v>54779</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>83971</v>
+        <v>84370</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1422644772366355</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1158891925317847</v>
+        <v>0.1142368353511567</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1751142913836928</v>
+        <v>0.175946940766109</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>141</v>
@@ -3315,19 +3315,19 @@
         <v>136509</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>113743</v>
+        <v>115447</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>160818</v>
+        <v>162266</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.143996859457102</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1199818132140224</v>
+        <v>0.1217793449529048</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1696392472858818</v>
+        <v>0.1711669217871778</v>
       </c>
     </row>
     <row r="41">
@@ -3344,19 +3344,19 @@
         <v>8654</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2066</v>
+        <v>2141</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24455</v>
+        <v>24216</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01847204837035387</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004409411255137908</v>
+        <v>0.004570229456430779</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05220021468681794</v>
+        <v>0.05169201254802584</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -3365,19 +3365,19 @@
         <v>11061</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6775</v>
+        <v>6760</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17382</v>
+        <v>17194</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02306580606423396</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01412873665813538</v>
+        <v>0.01409818320842489</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0362484339240533</v>
+        <v>0.03585620643376032</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>20</v>
@@ -3386,19 +3386,19 @@
         <v>19714</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11570</v>
+        <v>11536</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>33991</v>
+        <v>34615</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.02079568839502775</v>
+        <v>0.02079568839502774</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01220492243615624</v>
+        <v>0.0121689927137454</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03585569376363017</v>
+        <v>0.03651389398214646</v>
       </c>
     </row>
     <row r="42">
@@ -3415,19 +3415,19 @@
         <v>14400</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6948</v>
+        <v>7360</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25320</v>
+        <v>25670</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03073840929330931</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01483187358054934</v>
+        <v>0.01571072049996866</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05404720379233482</v>
+        <v>0.05479463454137527</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>12</v>
@@ -3436,19 +3436,19 @@
         <v>9317</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5047</v>
+        <v>4662</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16884</v>
+        <v>16122</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01942955522932704</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01052457905282253</v>
+        <v>0.009722542479265302</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03520944959164269</v>
+        <v>0.03362163811420297</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>23</v>
@@ -3457,19 +3457,19 @@
         <v>23717</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>15014</v>
+        <v>15098</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>36771</v>
+        <v>34718</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02501810193550662</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01583789452249052</v>
+        <v>0.01592653352599105</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03878797456741279</v>
+        <v>0.03662255736898859</v>
       </c>
     </row>
     <row r="43">
@@ -3486,19 +3486,19 @@
         <v>333081</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>310611</v>
+        <v>305735</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>355450</v>
+        <v>356643</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.7109885380329292</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6630239379202885</v>
+        <v>0.6526160137490933</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.7587375766922243</v>
+        <v>0.7612843002391176</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>418</v>
@@ -3507,19 +3507,19 @@
         <v>353531</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>334261</v>
+        <v>334808</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>370567</v>
+        <v>371645</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.7372574349392901</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.6970713543117542</v>
+        <v>0.6982116261906151</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.77278509297614</v>
+        <v>0.7750315218703034</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>669</v>
@@ -3528,19 +3528,19 @@
         <v>686612</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>652346</v>
+        <v>652546</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>716148</v>
+        <v>714614</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.7242760173305356</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.6881303023289906</v>
+        <v>0.6883406699310803</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.7554319346887876</v>
+        <v>0.7538136694214064</v>
       </c>
     </row>
     <row r="44">
@@ -3557,19 +3557,19 @@
         <v>44051</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>30480</v>
+        <v>30847</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>63945</v>
+        <v>63401</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.09403091840958218</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06506160664772224</v>
+        <v>0.06584489908854109</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1364956834237822</v>
+        <v>0.1353345973204121</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>45</v>
@@ -3578,19 +3578,19 @@
         <v>37394</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>26714</v>
+        <v>26800</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>51570</v>
+        <v>50874</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07798272653051359</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05571027415980788</v>
+        <v>0.05588958052708581</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1075443162459574</v>
+        <v>0.1060926842476891</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>77</v>
@@ -3599,19 +3599,19 @@
         <v>81446</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>62923</v>
+        <v>64763</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>102180</v>
+        <v>103742</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.08591333288182812</v>
+        <v>0.08591333288182809</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06637457780720836</v>
+        <v>0.06831552530329438</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1077852874303742</v>
+        <v>0.1094331097325838</v>
       </c>
     </row>
     <row r="45">
@@ -3703,19 +3703,19 @@
         <v>12273</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6022</v>
+        <v>6074</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22172</v>
+        <v>22375</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02454437227944346</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01204215166184034</v>
+        <v>0.01214716654513314</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04433992846002562</v>
+        <v>0.04474588303622793</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>11</v>
@@ -3724,19 +3724,19 @@
         <v>8306</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4598</v>
+        <v>4678</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15430</v>
+        <v>15544</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0172290454066884</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00953763898816784</v>
+        <v>0.009704792088272197</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03200650638584426</v>
+        <v>0.03224377224747644</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3745,19 +3745,19 @@
         <v>20579</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>12993</v>
+        <v>13568</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>31779</v>
+        <v>31738</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02095360840460949</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01322974740749703</v>
+        <v>0.01381512725223495</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03235741318413207</v>
+        <v>0.0323154153576879</v>
       </c>
     </row>
     <row r="47">
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4237</v>
+        <v>4172</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.001472061562613227</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.008472651945999929</v>
+        <v>0.008344113101573389</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3512</v>
+        <v>3486</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.00142709659262369</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.007285060670677062</v>
+        <v>0.007230917723909492</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>5102</v>
+        <v>4987</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.00144999028778438</v>
+        <v>0.001449990287784381</v>
       </c>
       <c r="V47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.005194585960934357</v>
+        <v>0.0050773884338806</v>
       </c>
     </row>
     <row r="48">
@@ -3845,19 +3845,19 @@
         <v>22626</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14570</v>
+        <v>13712</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>35623</v>
+        <v>33535</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.04524888725408907</v>
+        <v>0.04524888725408906</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02913802059842802</v>
+        <v>0.02742066330992963</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07123917068250261</v>
+        <v>0.0670652096566856</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>18</v>
@@ -3866,19 +3866,19 @@
         <v>14356</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>8831</v>
+        <v>8446</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>23025</v>
+        <v>22341</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02977991494462994</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01831758983450903</v>
+        <v>0.01751923221056308</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04776137155280028</v>
+        <v>0.04634283051291751</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>40</v>
@@ -3887,19 +3887,19 @@
         <v>36983</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>27186</v>
+        <v>27369</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>51983</v>
+        <v>51907</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03765586674854143</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02768080824101666</v>
+        <v>0.02786703965520301</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05292892366679836</v>
+        <v>0.05285206194921243</v>
       </c>
     </row>
     <row r="49">
@@ -3916,19 +3916,19 @@
         <v>444417</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>428709</v>
+        <v>429161</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>458048</v>
+        <v>458285</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.888756684163612</v>
+        <v>0.8887566841636119</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8573447131508279</v>
+        <v>0.8582489686108957</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.9160176106335481</v>
+        <v>0.9164913355485257</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>480</v>
@@ -3937,19 +3937,19 @@
         <v>426896</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>413248</v>
+        <v>412743</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>438520</v>
+        <v>439503</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.8855298491501763</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.8572183465655103</v>
+        <v>0.8561701723220909</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.9096405840620186</v>
+        <v>0.9116805132413278</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>845</v>
@@ -3958,19 +3958,19 @@
         <v>871313</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>850605</v>
+        <v>850061</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>889042</v>
+        <v>890922</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.887172776458893</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.8660878441383385</v>
+        <v>0.8655337411598922</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.9052245415337931</v>
+        <v>0.9071392159655238</v>
       </c>
     </row>
     <row r="50">
@@ -3987,19 +3987,19 @@
         <v>19991</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>11565</v>
+        <v>12423</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>30700</v>
+        <v>29751</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03997799474024238</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0231283695996251</v>
+        <v>0.02484352437167768</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06139404573910653</v>
+        <v>0.05949634897536974</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>35</v>
@@ -4008,19 +4008,19 @@
         <v>31834</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>22492</v>
+        <v>22146</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>42972</v>
+        <v>43862</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.06603409390588165</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.04665674629788042</v>
+        <v>0.04593763763822164</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.08913975084080189</v>
+        <v>0.09098413451304316</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>53</v>
@@ -4029,19 +4029,19 @@
         <v>51824</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>40452</v>
+        <v>38288</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>68291</v>
+        <v>66496</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.05276775810017171</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04118792915488162</v>
+        <v>0.03898499784146454</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.06953426965136009</v>
+        <v>0.06770643024648992</v>
       </c>
     </row>
     <row r="51">
@@ -4133,19 +4133,19 @@
         <v>233320</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>199444</v>
+        <v>198192</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>270606</v>
+        <v>265603</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.09875872750723126</v>
+        <v>0.09875872750723128</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.08441967104333029</v>
+        <v>0.08389002550612497</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1145407252259511</v>
+        <v>0.112423172978816</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>323</v>
@@ -4154,19 +4154,19 @@
         <v>242703</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>216920</v>
+        <v>218745</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>270108</v>
+        <v>274964</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1043380351875231</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.09325381116986027</v>
+        <v>0.09403834229692393</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1161194775851485</v>
+        <v>0.1182071954804906</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>499</v>
@@ -4175,19 +4175,19 @@
         <v>476023</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>431273</v>
+        <v>432894</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>520507</v>
+        <v>520710</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1015267206397345</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09198238718889386</v>
+        <v>0.09232807723021573</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1110143804032535</v>
+        <v>0.111057589545594</v>
       </c>
     </row>
     <row r="53">
@@ -4204,19 +4204,19 @@
         <v>13523</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>6140</v>
+        <v>5798</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>29246</v>
+        <v>28666</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.005723763132255925</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.002599086481070414</v>
+        <v>0.002454235774732017</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01237932282116826</v>
+        <v>0.01213359811160964</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>32</v>
@@ -4225,19 +4225,19 @@
         <v>21889</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>15193</v>
+        <v>15319</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>30531</v>
+        <v>31330</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.009410236223108456</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.00653140920946012</v>
+        <v>0.006585479339991883</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01312521153763573</v>
+        <v>0.01346895216092272</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>41</v>
@@ -4246,19 +4246,19 @@
         <v>35412</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>24215</v>
+        <v>24690</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>49398</v>
+        <v>50746</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.007552687576534676</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.005164602425965156</v>
+        <v>0.005265833012803192</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01053564197322268</v>
+        <v>0.01082310096976578</v>
       </c>
     </row>
     <row r="54">
@@ -4275,19 +4275,19 @@
         <v>84200</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>65425</v>
+        <v>67903</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>104572</v>
+        <v>105585</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.03563961828273011</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.02769265810299231</v>
+        <v>0.02874167755744633</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.04426273534394345</v>
+        <v>0.0446916606471902</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>85</v>
@@ -4296,19 +4296,19 @@
         <v>59756</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>47916</v>
+        <v>47450</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>74585</v>
+        <v>74025</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.02568900730151109</v>
+        <v>0.02568900730151108</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.02059915855034208</v>
+        <v>0.0203988953433638</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.03206406013299351</v>
+        <v>0.03182333410637025</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>164</v>
@@ -4317,19 +4317,19 @@
         <v>143955</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>122404</v>
+        <v>120988</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>171700</v>
+        <v>169445</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.03070294433705067</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0261065095279716</v>
+        <v>0.0258044476734333</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.03662033921670121</v>
+        <v>0.03613942881263976</v>
       </c>
     </row>
     <row r="55">
@@ -4346,19 +4346,19 @@
         <v>1856456</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1807406</v>
+        <v>1809924</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1899455</v>
+        <v>1901782</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.7857924952814197</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.7650309525615271</v>
+        <v>0.7660965888871154</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.8039930523581506</v>
+        <v>0.8049778472897626</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2329</v>
@@ -4367,19 +4367,19 @@
         <v>1803249</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1764125</v>
+        <v>1761621</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1839914</v>
+        <v>1836512</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.7752170987424524</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.7583976813518861</v>
+        <v>0.7573213546987252</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.790979514610244</v>
+        <v>0.7895169034771291</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>3899</v>
@@ -4388,19 +4388,19 @@
         <v>3659705</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>3594760</v>
+        <v>3596901</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3717626</v>
+        <v>3712621</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.7805458541799151</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.7666943230963744</v>
+        <v>0.7671510974435815</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.7928993117805313</v>
+        <v>0.7918318545868384</v>
       </c>
     </row>
     <row r="56">
@@ -4417,19 +4417,19 @@
         <v>175029</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>148622</v>
+        <v>147696</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>207309</v>
+        <v>205073</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.07408539579636297</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0629080996067066</v>
+        <v>0.06251624792123074</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08774873613156497</v>
+        <v>0.08680258886983751</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>276</v>
@@ -4438,19 +4438,19 @@
         <v>198524</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>176543</v>
+        <v>175831</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>224480</v>
+        <v>225920</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.08534562254540509</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.07589603992968412</v>
+        <v>0.07558960874436496</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.09650398917882572</v>
+        <v>0.09712291789144162</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>438</v>
@@ -4459,19 +4459,19 @@
         <v>373553</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>339091</v>
+        <v>336546</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>416368</v>
+        <v>416074</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.07967179326676524</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.07232172993646278</v>
+        <v>0.0717789089275904</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.08880348550069886</v>
+        <v>0.08874078052020151</v>
       </c>
     </row>
     <row r="57">
